--- a/Progettazione/Matrice.xlsx
+++ b/Progettazione/Matrice.xlsx
@@ -274,13 +274,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>174115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>502919</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>204867</xdr:rowOff>
+      <xdr:rowOff>30752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -303,8 +303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297180" y="3901440"/>
-          <a:ext cx="5463539" cy="2948067"/>
+          <a:off x="297180" y="4075555"/>
+          <a:ext cx="5463539" cy="2599837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
